--- a/results/11-2024/beta/inputs-11-2024.xlsx
+++ b/results/11-2024/beta/inputs-11-2024.xlsx
@@ -23287,7 +23287,7 @@
         <v>3100.9</v>
       </c>
       <c r="O219" t="n">
-        <v>4445.1</v>
+        <v>4417.2</v>
       </c>
       <c r="P219" t="n">
         <v>2439</v>
@@ -23355,28 +23355,28 @@
         <v>-1</v>
       </c>
       <c r="D220" t="n">
-        <v>0.00440944881889749</v>
+        <v>0.00608116293155669</v>
       </c>
       <c r="E220" t="n">
-        <v>0.00724299619663626</v>
+        <v>0.00523456712027648</v>
       </c>
       <c r="F220" t="n">
-        <v>0.00719601681061177</v>
+        <v>0.00792756208803924</v>
       </c>
       <c r="G220" t="n">
-        <v>0.00723457563419982</v>
+        <v>0.00575477607265906</v>
       </c>
       <c r="H220" t="n">
-        <v>0.00375583046035288</v>
+        <v>0.0037233826809977</v>
       </c>
       <c r="I220" t="n">
         <v>0.0051977939134229</v>
       </c>
       <c r="J220" t="n">
-        <v>29349.9</v>
+        <v>29354.3</v>
       </c>
       <c r="K220" t="n">
-        <v>1893.8</v>
+        <v>1893.4</v>
       </c>
       <c r="L220" t="n">
         <v>461.92733</v>
@@ -23385,28 +23385,28 @@
         <v>77.681</v>
       </c>
       <c r="N220" t="n">
-        <v>3141.3</v>
+        <v>3139.2</v>
       </c>
       <c r="O220" t="n">
-        <v>4504.1</v>
+        <v>4465.4</v>
       </c>
       <c r="P220" t="n">
-        <v>2478.8</v>
+        <v>2483.3</v>
       </c>
       <c r="Q220" t="n">
-        <v>505.549857309427</v>
+        <v>483.1</v>
       </c>
       <c r="R220" t="n">
         <v>79.8132565117648</v>
       </c>
       <c r="S220" t="n">
-        <v>159.961884337329</v>
+        <v>164.8</v>
       </c>
       <c r="T220" t="n">
-        <v>2151.899</v>
+        <v>2152.299</v>
       </c>
       <c r="U220" t="n">
-        <v>217.6</v>
+        <v>221.6</v>
       </c>
       <c r="V220" t="n">
         <v>0</v>
@@ -23442,7 +23442,7 @@
         <v>1731.437</v>
       </c>
       <c r="AG220" t="n">
-        <v>298.663</v>
+        <v>278.163</v>
       </c>
     </row>
     <row r="221">
@@ -23468,16 +23468,16 @@
         <v>0.00583217133289549</v>
       </c>
       <c r="H221" t="n">
-        <v>0.00495944283065186</v>
+        <v>0.00545171502706143</v>
       </c>
       <c r="I221" t="n">
         <v>0.00524986184574083</v>
       </c>
       <c r="J221" t="n">
-        <v>29641.2825253979</v>
+        <v>29645.7262081059</v>
       </c>
       <c r="K221" t="n">
-        <v>1885.49715834583</v>
+        <v>1885.09320921534</v>
       </c>
       <c r="L221" t="n">
         <v>467.087025883687</v>
@@ -23486,25 +23486,25 @@
         <v>79.275</v>
       </c>
       <c r="N221" t="n">
-        <v>3170.00819695195</v>
+        <v>3167.88900514805</v>
       </c>
       <c r="O221" t="n">
-        <v>4552.98820304714</v>
+        <v>4505.15020255048</v>
       </c>
       <c r="P221" t="n">
-        <v>2512.48563586214</v>
+        <v>2522.33520327819</v>
       </c>
       <c r="Q221" t="n">
-        <v>515.702621440952</v>
+        <v>492.801912246684</v>
       </c>
       <c r="R221" t="n">
         <v>71.2739115472825</v>
       </c>
       <c r="S221" t="n">
-        <v>161.167613599023</v>
+        <v>163.15466849793</v>
       </c>
       <c r="T221" t="n">
-        <v>2160.127</v>
+        <v>2160.527</v>
       </c>
       <c r="U221" t="n">
         <v>224.743658420665</v>
@@ -23540,10 +23540,10 @@
         <v>0</v>
       </c>
       <c r="AF221" t="n">
-        <v>1763.8182359076</v>
+        <v>1763.0346223627</v>
       </c>
       <c r="AG221" t="n">
-        <v>301.72085924767</v>
+        <v>280.671045427128</v>
       </c>
     </row>
     <row r="222">
@@ -23575,10 +23575,10 @@
         <v>0.00530534068053212</v>
       </c>
       <c r="J222" t="n">
-        <v>29945.3294512391</v>
+        <v>29949.8187152429</v>
       </c>
       <c r="K222" t="n">
-        <v>1907.74054956272</v>
+        <v>1907.3318350055</v>
       </c>
       <c r="L222" t="n">
         <v>450.668796978304</v>
@@ -23587,25 +23587,25 @@
         <v>79.275</v>
       </c>
       <c r="N222" t="n">
-        <v>3197.69785327426</v>
+        <v>3195.56015057414</v>
       </c>
       <c r="O222" t="n">
-        <v>4626.71543072323</v>
+        <v>4578.04931402487</v>
       </c>
       <c r="P222" t="n">
-        <v>2538.47766418171</v>
+        <v>2548.44772380158</v>
       </c>
       <c r="Q222" t="n">
-        <v>526.059279645475</v>
+        <v>502.698664280664</v>
       </c>
       <c r="R222" t="n">
         <v>74.0562477423516</v>
       </c>
       <c r="S222" t="n">
-        <v>162.643685744505</v>
+        <v>164.648939314487</v>
       </c>
       <c r="T222" t="n">
-        <v>2201.67869024</v>
+        <v>2202.093889974</v>
       </c>
       <c r="U222" t="n">
         <v>228.029047409692</v>
@@ -23641,10 +23641,10 @@
         <v>0</v>
       </c>
       <c r="AF222" t="n">
-        <v>1779.76927899249</v>
+        <v>1778.08535540041</v>
       </c>
       <c r="AG222" t="n">
-        <v>302.562929852717</v>
+        <v>281.06477032852</v>
       </c>
     </row>
     <row r="223">
@@ -23676,10 +23676,10 @@
         <v>0.0053207417791068</v>
       </c>
       <c r="J223" t="n">
-        <v>30256.7723869391</v>
+        <v>30261.308341014</v>
       </c>
       <c r="K223" t="n">
-        <v>1930.86765073576</v>
+        <v>1930.4539814257</v>
       </c>
       <c r="L223" t="n">
         <v>446.412208570169</v>
@@ -23688,25 +23688,25 @@
         <v>75.203</v>
       </c>
       <c r="N223" t="n">
-        <v>3225.52033291041</v>
+        <v>3223.36403051996</v>
       </c>
       <c r="O223" t="n">
-        <v>4658.68738402263</v>
+        <v>4609.71515475437</v>
       </c>
       <c r="P223" t="n">
-        <v>2564.39985834083</v>
+        <v>2574.48894008494</v>
       </c>
       <c r="Q223" t="n">
-        <v>536.623926649562</v>
+        <v>512.794168994753</v>
       </c>
       <c r="R223" t="n">
         <v>88.4868021619358</v>
       </c>
       <c r="S223" t="n">
-        <v>164.114351032311</v>
+        <v>166.13773661157</v>
       </c>
       <c r="T223" t="n">
-        <v>2208.37869024</v>
+        <v>2208.793889974</v>
       </c>
       <c r="U223" t="n">
         <v>231.362463474923</v>
@@ -23742,10 +23742,10 @@
         <v>0</v>
       </c>
       <c r="AF223" t="n">
-        <v>1797.26908032064</v>
+        <v>1794.71149812467</v>
       </c>
       <c r="AG223" t="n">
-        <v>304.042871386726</v>
+        <v>282.064144348848</v>
       </c>
     </row>
     <row r="224">
@@ -23777,10 +23777,10 @@
         <v>0.00534438472662901</v>
       </c>
       <c r="J224" t="n">
-        <v>30562.1364104264</v>
+        <v>30566.7181432502</v>
       </c>
       <c r="K224" t="n">
-        <v>1954.57767221682</v>
+        <v>1954.158923269</v>
       </c>
       <c r="L224" t="n">
         <v>449.361288</v>
@@ -23789,25 +23789,25 @@
         <v>75.203</v>
       </c>
       <c r="N224" t="n">
-        <v>3252.33491841196</v>
+        <v>3250.16069012155</v>
       </c>
       <c r="O224" t="n">
-        <v>4690.90825073696</v>
+        <v>4641.62782503496</v>
       </c>
       <c r="P224" t="n">
-        <v>2589.31708878998</v>
+        <v>2599.52236547798</v>
       </c>
       <c r="Q224" t="n">
-        <v>547.400739412603</v>
+        <v>523.092417862893</v>
       </c>
       <c r="R224" t="n">
         <v>103.161764741351</v>
       </c>
       <c r="S224" t="n">
-        <v>165.049737410218</v>
+        <v>167.08465548067</v>
       </c>
       <c r="T224" t="n">
-        <v>2215.07869024</v>
+        <v>2215.493889974</v>
       </c>
       <c r="U224" t="n">
         <v>234.744608694576</v>
@@ -23843,10 +23843,10 @@
         <v>0</v>
       </c>
       <c r="AF224" t="n">
-        <v>1814.95925428489</v>
+        <v>1811.522377287</v>
       </c>
       <c r="AG224" t="n">
-        <v>305.52694327906</v>
+        <v>283.064920289481</v>
       </c>
     </row>
     <row r="225">
@@ -23878,10 +23878,10 @@
         <v>0.00535891413284784</v>
       </c>
       <c r="J225" t="n">
-        <v>30851.8978925676</v>
+        <v>30856.5230650801</v>
       </c>
       <c r="K225" t="n">
-        <v>1968.53463096965</v>
+        <v>1968.11289188136</v>
       </c>
       <c r="L225" t="n">
         <v>448.453726991034</v>
@@ -23890,25 +23890,25 @@
         <v>75.203</v>
       </c>
       <c r="N225" t="n">
-        <v>3279.12652002303</v>
+        <v>3276.93438119768</v>
       </c>
       <c r="O225" t="n">
-        <v>4723.38023384059</v>
+        <v>4673.78951251855</v>
       </c>
       <c r="P225" t="n">
-        <v>2613.92267757626</v>
+        <v>2624.24639104833</v>
       </c>
       <c r="Q225" t="n">
-        <v>546.018477284129</v>
+        <v>521.771537588453</v>
       </c>
       <c r="R225" t="n">
         <v>109.690951603052</v>
       </c>
       <c r="S225" t="n">
-        <v>165.130840275354</v>
+        <v>167.166758272789</v>
       </c>
       <c r="T225" t="n">
-        <v>2205.53969024</v>
+        <v>2205.954889974</v>
       </c>
       <c r="U225" t="n">
         <v>238.176195410118</v>
@@ -23944,10 +23944,10 @@
         <v>0</v>
       </c>
       <c r="AF225" t="n">
-        <v>1838.44755519597</v>
+        <v>1834.11720688667</v>
       </c>
       <c r="AG225" t="n">
-        <v>307.97046464255</v>
+        <v>284.953140177262</v>
       </c>
     </row>
     <row r="226">
@@ -23979,10 +23979,10 @@
         <v>0.00533462036210497</v>
       </c>
       <c r="J226" t="n">
-        <v>31121.5989644067</v>
+        <v>31126.264569245</v>
       </c>
       <c r="K226" t="n">
-        <v>1981.13962064417</v>
+        <v>1980.71518106142</v>
       </c>
       <c r="L226" t="n">
         <v>451.587350777436</v>
@@ -23991,25 +23991,25 @@
         <v>75.203</v>
       </c>
       <c r="N226" t="n">
-        <v>3307.03429149024</v>
+        <v>3304.82349595586</v>
       </c>
       <c r="O226" t="n">
-        <v>4806.46436496607</v>
+        <v>4755.93289067343</v>
       </c>
       <c r="P226" t="n">
-        <v>2635.95473940002</v>
+        <v>2646.38928336033</v>
       </c>
       <c r="Q226" t="n">
-        <v>544.639705557575</v>
+        <v>520.453992718313</v>
       </c>
       <c r="R226" t="n">
         <v>134.692196391126</v>
       </c>
       <c r="S226" t="n">
-        <v>164.406321346802</v>
+        <v>166.433306663197</v>
       </c>
       <c r="T226" t="n">
-        <v>2249.29677435552</v>
+        <v>2249.7275234174</v>
       </c>
       <c r="U226" t="n">
         <v>241.657946376297</v>
@@ -24045,10 +24045,10 @@
         <v>0</v>
       </c>
       <c r="AF226" t="n">
-        <v>1862.25402419393</v>
+        <v>1857.01889003517</v>
       </c>
       <c r="AG226" t="n">
-        <v>310.42844590262</v>
+        <v>286.849919297766</v>
       </c>
     </row>
     <row r="227">
@@ -24080,10 +24080,10 @@
         <v>0.00530631319568364</v>
       </c>
       <c r="J227" t="n">
-        <v>31395.1500139805</v>
+        <v>31399.8566283152</v>
       </c>
       <c r="K227" t="n">
-        <v>1996.10509851138</v>
+        <v>1995.67745272291</v>
       </c>
       <c r="L227" t="n">
         <v>451.948851432976</v>
@@ -24092,25 +24092,25 @@
         <v>75.203</v>
       </c>
       <c r="N227" t="n">
-        <v>3334.55878226375</v>
+        <v>3332.32958624848</v>
       </c>
       <c r="O227" t="n">
-        <v>4839.69520590623</v>
+        <v>4788.84607274818</v>
       </c>
       <c r="P227" t="n">
-        <v>2658.84952528593</v>
+        <v>2669.39124256</v>
       </c>
       <c r="Q227" t="n">
-        <v>543.264415419196</v>
+        <v>519.139774830117</v>
       </c>
       <c r="R227" t="n">
         <v>155.154681378039</v>
       </c>
       <c r="S227" t="n">
-        <v>164.287370477936</v>
+        <v>166.312889234756</v>
       </c>
       <c r="T227" t="n">
-        <v>2255.26877435552</v>
+        <v>2255.6995234174</v>
       </c>
       <c r="U227" t="n">
         <v>245.190594913367</v>
@@ -24146,10 +24146,10 @@
         <v>0</v>
       </c>
       <c r="AF227" t="n">
-        <v>1886.38336419595</v>
+        <v>1880.23203537275</v>
       </c>
       <c r="AG227" t="n">
-        <v>312.900972627831</v>
+        <v>288.755296449687</v>
       </c>
     </row>
     <row r="228">
@@ -24181,10 +24181,10 @@
         <v>0.00527407883226472</v>
       </c>
       <c r="J228" t="n">
-        <v>31679.947051148</v>
+        <v>31684.696360925</v>
       </c>
       <c r="K228" t="n">
-        <v>2009.83081637402</v>
+        <v>2009.40022998616</v>
       </c>
       <c r="L228" t="n">
         <v>456.1445332</v>
@@ -24193,25 +24193,25 @@
         <v>75.203</v>
       </c>
       <c r="N228" t="n">
-        <v>3362.393673419</v>
+        <v>3360.14586941614</v>
       </c>
       <c r="O228" t="n">
-        <v>4873.18514639485</v>
+        <v>4822.01619301344</v>
       </c>
       <c r="P228" t="n">
-        <v>2682.25778530291</v>
+        <v>2692.90294087333</v>
       </c>
       <c r="Q228" t="n">
-        <v>541.892598077503</v>
+        <v>517.828875522779</v>
       </c>
       <c r="R228" t="n">
         <v>162.725745305459</v>
       </c>
       <c r="S228" t="n">
-        <v>164.725325949672</v>
+        <v>166.756244312196</v>
       </c>
       <c r="T228" t="n">
-        <v>2262.96877435552</v>
+        <v>2263.3995234174</v>
       </c>
       <c r="U228" t="n">
         <v>248.77488506154</v>
@@ -24247,10 +24247,10 @@
         <v>0</v>
       </c>
       <c r="AF228" t="n">
-        <v>1910.84035033693</v>
+        <v>1903.76132307562</v>
       </c>
       <c r="AG228" t="n">
-        <v>315.388130893108</v>
+        <v>290.669310607591</v>
       </c>
     </row>
     <row r="229">
@@ -24282,7 +24282,7 @@
         <v>0.00523379729860385</v>
       </c>
       <c r="J229" t="n">
-        <v>31967.7835444218</v>
+        <v>31972.5760053022</v>
       </c>
       <c r="K229" t="n">
         <v>0</v>
@@ -24383,7 +24383,7 @@
         <v>0.00522327514825061</v>
       </c>
       <c r="J230" t="n">
-        <v>32251.4661143502</v>
+        <v>32256.3011035973</v>
       </c>
       <c r="K230" t="n">
         <v>0</v>
@@ -24484,7 +24484,7 @@
         <v>0.00515037171705424</v>
       </c>
       <c r="J231" t="n">
-        <v>32532.5144889865</v>
+        <v>32537.3916116939</v>
       </c>
       <c r="K231" t="n">
         <v>0</v>
@@ -24585,7 +24585,7 @@
         <v>0.00510328671531268</v>
       </c>
       <c r="J232" t="n">
-        <v>32816.9062653397</v>
+        <v>32821.8260227347</v>
       </c>
       <c r="K232" t="n">
         <v>0</v>
@@ -24686,7 +24686,7 @@
         <v>0.00506502170135303</v>
       </c>
       <c r="J233" t="n">
-        <v>33105.0467042242</v>
+        <v>33110.0096582887</v>
       </c>
       <c r="K233" t="n">
         <v>0</v>
@@ -24787,7 +24787,7 @@
         <v>0.00501081648038282</v>
       </c>
       <c r="J234" t="n">
-        <v>33397.5436968611</v>
+        <v>33402.5505007094</v>
       </c>
       <c r="K234" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>0.00502660062373872</v>
       </c>
       <c r="J235" t="n">
-        <v>33697.0314385427</v>
+        <v>33702.0831401952</v>
       </c>
       <c r="K235" t="n">
         <v>0</v>
@@ -24989,7 +24989,7 @@
         <v>0.00501362928348925</v>
       </c>
       <c r="J236" t="n">
-        <v>34003.0033532512</v>
+        <v>34008.1009247848</v>
       </c>
       <c r="K236" t="n">
         <v>0</v>
@@ -25090,7 +25090,7 @@
         <v>0.00500072649779626</v>
       </c>
       <c r="J237" t="n">
-        <v>34315.3581257832</v>
+        <v>34320.5025240862</v>
       </c>
       <c r="K237" t="n">
         <v>0</v>
@@ -25191,7 +25191,7 @@
         <v>0.00497584366453419</v>
       </c>
       <c r="J238" t="n">
-        <v>34633.1839193066</v>
+        <v>34638.3759645689</v>
       </c>
       <c r="K238" t="n">
         <v>0</v>
@@ -25292,7 +25292,7 @@
         <v>0.00496719175837779</v>
       </c>
       <c r="J239" t="n">
-        <v>34956.582049025</v>
+        <v>34961.8225766253</v>
       </c>
       <c r="K239" t="n">
         <v>0</v>
@@ -25393,7 +25393,7 @@
         <v>0.00492673519295383</v>
       </c>
       <c r="J240" t="n">
-        <v>35284.7419933101</v>
+        <v>35290.0317171173</v>
       </c>
       <c r="K240" t="n">
         <v>0</v>
@@ -25494,7 +25494,7 @@
         <v>0.00488279704341488</v>
       </c>
       <c r="J241" t="n">
-        <v>35616.7519153299</v>
+        <v>35622.0914125148</v>
       </c>
       <c r="K241" t="n">
         <v>0</v>
@@ -25595,7 +25595,7 @@
         <v>0.00482756991313527</v>
       </c>
       <c r="J242" t="n">
-        <v>35951.8012934561</v>
+        <v>35957.1910196797</v>
       </c>
       <c r="K242" t="n">
         <v>0</v>
@@ -25696,7 +25696,7 @@
         <v>0.0047847827449996</v>
       </c>
       <c r="J243" t="n">
-        <v>36290.3967037064</v>
+        <v>36295.8371905733</v>
       </c>
       <c r="K243" t="n">
         <v>0</v>
@@ -25797,7 +25797,7 @@
         <v>0.00475029738109622</v>
       </c>
       <c r="J244" t="n">
-        <v>36632.6394612843</v>
+        <v>36638.1312555879</v>
       </c>
       <c r="K244" t="n">
         <v>0</v>
@@ -25898,7 +25898,7 @@
         <v>0.00472007545910125</v>
       </c>
       <c r="J245" t="n">
-        <v>36978.4282509864</v>
+        <v>36983.9718843311</v>
       </c>
       <c r="K245" t="n">
         <v>0</v>
@@ -25999,7 +25999,7 @@
         <v>0.00468244739007639</v>
       </c>
       <c r="J246" t="n">
-        <v>37327.3578119984</v>
+        <v>37332.953755234</v>
       </c>
       <c r="K246" t="n">
         <v>0</v>
@@ -26100,7 +26100,7 @@
         <v>0.00465677886260774</v>
       </c>
       <c r="J247" t="n">
-        <v>37679.5294595238</v>
+        <v>37685.1781986889</v>
       </c>
       <c r="K247" t="n">
         <v>0</v>
@@ -26201,7 +26201,7 @@
         <v>0.00462371106398929</v>
       </c>
       <c r="J248" t="n">
-        <v>38035.1458239698</v>
+        <v>38040.8478754802</v>
       </c>
       <c r="K248" t="n">
         <v>0</v>
@@ -26302,7 +26302,7 @@
         <v>0.00459481083552404</v>
       </c>
       <c r="J249" t="n">
-        <v>38393.1937533009</v>
+        <v>38398.9494816855</v>
       </c>
       <c r="K249" t="n">
         <v>0</v>
@@ -26403,7 +26403,7 @@
         <v>0.00456241751240172</v>
       </c>
       <c r="J250" t="n">
-        <v>38753.6732475171</v>
+        <v>38759.4830173047</v>
       </c>
       <c r="K250" t="n">
         <v>0</v>
@@ -26504,7 +26504,7 @@
         <v>0.00454169639722291</v>
       </c>
       <c r="J251" t="n">
-        <v>39117.1921978397</v>
+        <v>39123.0564646914</v>
       </c>
       <c r="K251" t="n">
         <v>0</v>
@@ -26605,7 +26605,7 @@
         <v>0.00450988792928486</v>
       </c>
       <c r="J252" t="n">
-        <v>39483.9532346758</v>
+        <v>39489.87248463</v>
       </c>
       <c r="K252" t="n">
         <v>0</v>
@@ -26706,7 +26706,7 @@
         <v>0.00448215742174929</v>
       </c>
       <c r="J253" t="n">
-        <v>39853.5510972111</v>
+        <v>39859.5257555516</v>
       </c>
       <c r="K253" t="n">
         <v>0</v>
@@ -26807,7 +26807,7 @@
         <v>0.00445843265792623</v>
       </c>
       <c r="J254" t="n">
-        <v>40225.8844702422</v>
+        <v>40231.9149470639</v>
       </c>
       <c r="K254" t="n">
         <v>0</v>
@@ -26908,7 +26908,7 @@
         <v>0.00443122698635778</v>
       </c>
       <c r="J255" t="n">
-        <v>40601.1559841761</v>
+        <v>40607.2427199514</v>
       </c>
       <c r="K255" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         <v>0.00441167784045593</v>
       </c>
       <c r="J256" t="n">
-        <v>40979.5682694199</v>
+        <v>40985.7117349985</v>
       </c>
       <c r="K256" t="n">
         <v>0</v>
@@ -27110,7 +27110,7 @@
         <v>0.00439230042599803</v>
       </c>
       <c r="J257" t="n">
-        <v>41361.2226411772</v>
+        <v>41367.4233225977</v>
       </c>
       <c r="K257" t="n">
         <v>0</v>
@@ -27211,7 +27211,7 @@
         <v>0.00437675198161469</v>
       </c>
       <c r="J258" t="n">
-        <v>41746.4230450586</v>
+        <v>41752.6814739255</v>
       </c>
       <c r="K258" t="n">
         <v>0</v>
@@ -27312,7 +27312,7 @@
         <v>0.00435767949923127</v>
       </c>
       <c r="J259" t="n">
-        <v>42134.9668506571</v>
+        <v>42141.2835281975</v>
       </c>
       <c r="K259" t="n">
         <v>0</v>
@@ -27413,7 +27413,7 @@
         <v>0.00433514478295249</v>
       </c>
       <c r="J260" t="n">
-        <v>42527.0566883796</v>
+        <v>42533.4321461982</v>
       </c>
       <c r="K260" t="n">
         <v>0</v>
